--- a/film_insight/data/douban_url.xlsx
+++ b/film_insight/data/douban_url.xlsx
@@ -1,265 +1,278 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="18350" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
-    <t>电影名字</t>
+    <t>name</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>时间</t>
+    <t>year</t>
   </si>
   <si>
     <t>钢琴家</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1296736/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>穿条纹睡衣的男孩</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/3008247/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>海的沉默</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1769507/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>纳粹军官的妻子</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1438732/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>奥斯威辛：纳粹的最终解决方案</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1423039/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>法国小馆儿归来</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/5194566/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>卢旺达饭店</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1291822/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>帝国的毁灭</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1309115/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>西西里的美丽传说</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1292402/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>哥本哈根</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/2063130/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>乌龟也会飞</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1400935/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>玩具王国</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/3436659/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>战争的颜色</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/2057617/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>从纳粹手中救出的孩子们</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/26715377/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>只要我们还记得，他们就依然活着！</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/34906612/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>我们的父辈</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/27092246/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>科利奥兰纳斯</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/25768089/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>石首鱼行动</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/26005122/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>模仿游戏</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/10463953/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>失去的那一代</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/34926655/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>地雷区</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/26591654/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>他们已不再变老</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/30242710/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>冒牌上尉</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/27114240/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>亨利五世</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/10543907/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>顿巴斯</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/26356319/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>麦库林</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/10771314/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>恐怖分子的孩子</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/27621575/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>至暗时刻</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/26761416/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>西线无战事</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/3042261/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>地狱尖兵</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/36118263/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>利益区域</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/35169716/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>盟约</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/35722688/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>警笛</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/34953770/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>独角兽战争</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/35109889/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>美丽人生</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1292063/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>辛德勒的名单</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1295124/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>影武者</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1303067/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>冬兵</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/1767487/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>拿破仑</t>
   </si>
   <si>
+    <t>https://movie.douban.com/subject/35224919/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
+  </si>
+  <si>
     <t>广岛 BBC</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1296736/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/3008247/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1769507/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1438732/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1423039/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/5194566/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1291822/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1309115/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1292402/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/2063130/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1400935/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/3436659/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/2057617/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/26715377/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/34906612/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/27092246/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/25768089/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/26005122/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/10463953/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/34926655/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/26591654/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/30242710/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/27114240/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/10543907/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/26356319/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/10771314/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/27621575/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/26761416/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/3042261/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/36118263/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/35169716/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/35722688/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/34953770/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/35109889/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1292063/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1295124/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1303067/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/1767487/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/35224919/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
   </si>
   <si>
     <t>https://movie.douban.com/subject/1485423/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score</t>
@@ -268,21 +281,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,18 +309,347 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -324,12 +672,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -337,14 +924,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -627,17 +1265,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -650,438 +1290,438 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="14.5" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.5" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.5" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="14.5" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="14.5" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.5" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.5" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2004</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="14.5" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14.5" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.5" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>2004</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.5" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.5" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>2005</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.5" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="14.5" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.5" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="14.5" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="14.5" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="14.5" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="14.5" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="14.5" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="14.5" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" ht="14.5" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="14.5" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>2012</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="14.5" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="14.5" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="14.5" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="14.5" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="14.5" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="14.5" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="14.5" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="14.5" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="14.5" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="14.5" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" ht="14.5" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="14.5" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>2001</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" ht="14.5" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>2002</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" ht="14.5" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>2003</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" ht="14.5" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" ht="14.5" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>82</v>
@@ -1092,47 +1732,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://movie.douban.com/subject/1296736/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://movie.douban.com/subject/3008247/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://movie.douban.com/subject/1769507/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://movie.douban.com/subject/1438732/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://movie.douban.com/subject/1423039/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://movie.douban.com/subject/5194566/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://movie.douban.com/subject/1291822/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://movie.douban.com/subject/1309115/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://movie.douban.com/subject/1292402/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://movie.douban.com/subject/2063130/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://movie.douban.com/subject/1400935/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://movie.douban.com/subject/3436659/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://movie.douban.com/subject/2057617/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://movie.douban.com/subject/26715377/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://movie.douban.com/subject/34906612/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://movie.douban.com/subject/27092246/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://movie.douban.com/subject/25768089/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://movie.douban.com/subject/26005122/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://movie.douban.com/subject/10463953/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://movie.douban.com/subject/34926655/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://movie.douban.com/subject/26591654/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://movie.douban.com/subject/30242710/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://movie.douban.com/subject/27114240/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://movie.douban.com/subject/10543907/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://movie.douban.com/subject/26356319/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://movie.douban.com/subject/10771314/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://movie.douban.com/subject/27621575/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://movie.douban.com/subject/26761416/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://movie.douban.com/subject/3042261/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://movie.douban.com/subject/36118263/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://movie.douban.com/subject/35169716/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://movie.douban.com/subject/35722688/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://movie.douban.com/subject/34953770/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://movie.douban.com/subject/35109889/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://movie.douban.com/subject/1292063/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://movie.douban.com/subject/1295124/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://movie.douban.com/subject/1303067/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://movie.douban.com/subject/1767487/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://movie.douban.com/subject/35224919/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://movie.douban.com/subject/1485423/comments?start=20&amp;limit=20&amp;status=P&amp;sort=new_score"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>